--- a/biology/Botanique/Léon_XIII_(rose)/Léon_XIII_(rose).xlsx
+++ b/biology/Botanique/Léon_XIII_(rose)/Léon_XIII_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_XIII_(rose)</t>
+          <t>Léon_XIII_(rose)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Léon XIII' est un cultivar de rosier obtenu en 1890 et mis au commerce en 1892 par la maison luxembourgeoise Soupert &amp; Notting. Il rend hommage au pape Léon XIII, pape de 1878 à 1903. Il est issu d'un croisement 'Anna Olivier' × 'Earl of Eldon'[1].
+'Léon XIII' est un cultivar de rosier obtenu en 1890 et mis au commerce en 1892 par la maison luxembourgeoise Soupert &amp; Notting. Il rend hommage au pape Léon XIII, pape de 1878 à 1903. Il est issu d'un croisement 'Anna Olivier' × 'Earl of Eldon'.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_XIII_(rose)</t>
+          <t>Léon_XIII_(rose)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier thé présente de grosses fleurs pleines blanches, légèrement nuancées de jaune paille[1]. La floraison se déroule de juin aux gelées. Son buisson rustique à feuillage vert foncé est vigoureux. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier thé présente de grosses fleurs pleines blanches, légèrement nuancées de jaune paille. La floraison se déroule de juin aux gelées. Son buisson rustique à feuillage vert foncé est vigoureux. 
 Cette variété a obtenu un immense succès à la Belle Époque dans de nombreux pays, grâce à sa généreuse floribondité. Elle était plébiscitée pour les massifs 
-, ainsi que pour les bouquets et corbeilles de fleuristes. L'écrivain russe Anton Tchekhov l'a plantée dans le jardin de sa villa de Yalta en Crimée[2].
+, ainsi que pour les bouquets et corbeilles de fleuristes. L'écrivain russe Anton Tchekhov l'a plantée dans le jardin de sa villa de Yalta en Crimée.
 Cette rose n'est plus commercialisée.
 </t>
         </is>
